--- a/08-agosto/6-portal-cliente/sanchez/SANCHEZ.xlsx
+++ b/08-agosto/6-portal-cliente/sanchez/SANCHEZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\sanchez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\sanchez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF14CA-D6D3-4A94-9263-EF6F92AA17E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7FC432-E922-4160-B11A-298F7DACC3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,14 +583,14 @@
         <v>8</v>
       </c>
       <c r="B7" s="8">
-        <v>560012.03</v>
+        <v>566873.09</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="11">
         <f>+B7+C7</f>
-        <v>560012.03</v>
+        <v>566873.09</v>
       </c>
       <c r="E7" s="9">
         <v>30000</v>
@@ -604,11 +604,11 @@
       </c>
       <c r="H7" s="9">
         <f>+D7+G7</f>
-        <v>590012.03</v>
+        <v>596873.09</v>
       </c>
       <c r="I7" s="9">
         <f>+H7*2</f>
-        <v>1180024.06</v>
+        <v>1193746.18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
